--- a/Statistics/400m Fri_statistics.xlsx
+++ b/Statistics/400m Fri_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,12 +1246,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Manith Randula Attanapola</t>
+          <t>Thomas Johansen</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.26,47</t>
+          <t>4.26,41</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>08.02.2013</t>
+          <t>06.02.2015</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1281,12 +1281,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Thomas Johansen</t>
+          <t>Manith Randula Attanapola</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.26,41</t>
+          <t>4.26,47</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1294,12 +1294,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>06.02.2015</t>
+          <t>08.02.2013</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1491,12 +1491,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sebastian Olafsson</t>
+          <t>Vetle Henriksen</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4.30,65</t>
+          <t>4.30,52</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1504,12 +1504,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>31.10.2016</t>
+          <t>04.12.2010</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1526,12 +1526,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Vetle Henriksen</t>
+          <t>Sebastian Olafsson</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4.30,52</t>
+          <t>4.30,65</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>04.12.2010</t>
+          <t>31.10.2016</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1561,7 +1561,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Solum Ole Peder Uthus</t>
+          <t>Ole Peder Uthus Solum</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1596,12 +1596,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ask Yifei Baldersheim</t>
+          <t>Gabriel Rognes Steen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4.34,05</t>
+          <t>4.33,98</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14.11.2021</t>
+          <t>15.01.2023</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1631,12 +1631,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gabriel Rognes Steen</t>
+          <t>Ask Yifei Baldersheim</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4.33,98</t>
+          <t>4.34,05</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15.01.2023</t>
+          <t>14.11.2021</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1806,7 +1806,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Scott Rene Høgenhaug</t>
+          <t>Arnt Martin Ystenes</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1819,12 +1819,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>06.10.2017</t>
+          <t>22.01.2010</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1841,7 +1841,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Arnt Martin Ystenes</t>
+          <t>Scott Rene Høgenhaug</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1854,12 +1854,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>22.01.2010</t>
+          <t>06.10.2017</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1946,12 +1946,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Birk Skaalvik Trelstad</t>
+          <t>Sondre Brunvoll Møllerløkken</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4.39,25</t>
+          <t>4.39,07</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15.03.2024</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1981,12 +1981,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sondre Brunvoll Møllerløkken</t>
+          <t>Birk Skaalvik Trelstad</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4.39,07</t>
+          <t>4.39,25</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1994,12 +1994,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>15.03.2024</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2016,12 +2016,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Jakob Isaksen</t>
+          <t>Vegard Skjervold</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4.39,38</t>
+          <t>4.39,45</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2029,12 +2029,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>02.12.2023</t>
+          <t>18.01.2019</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2051,12 +2051,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Vegard Skjervold</t>
+          <t>Jakob Isaksen</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4.39,45</t>
+          <t>4.39,38</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>18.01.2019</t>
+          <t>02.12.2023</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3171,12 +3171,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Erlend Skogland</t>
+          <t>Iris Elise Moen</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5.05,24</t>
+          <t>5.32,56</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>20.09.2009</t>
+          <t>17.04.2021</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3206,12 +3206,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Iris Elise Moen</t>
+          <t>Erlend Skogland</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5.32,56</t>
+          <t>5.05,24</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>17.04.2021</t>
+          <t>20.09.2009</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3521,12 +3521,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Theodor Solheim</t>
+          <t>Simon Perssønn Mørseth</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5.12,76</t>
+          <t>5.12,79</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>25.10.2020</t>
+          <t>15.03.2024</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Simon Perssønn Mørseth</t>
+          <t>Theodor Solheim</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5.12,79</t>
+          <t>5.12,76</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3569,12 +3569,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>15.03.2024</t>
+          <t>25.10.2020</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3801,12 +3801,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Daniel Stanislaw Czuba</t>
+          <t>Sondre Grimsmo</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5.21,78</t>
+          <t>5.22,07</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3814,12 +3814,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>10.02.2008</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3836,12 +3836,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sondre Grimsmo</t>
+          <t>Daniel Stanislaw Czuba</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5.22,07</t>
+          <t>5.21,78</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3849,12 +3849,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>10.02.2008</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3976,12 +3976,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ingjerd Jepsen Vegge</t>
+          <t>Sondre Aakerholm Adsen</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5.54,12</t>
+          <t>5.25,02</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3989,12 +3989,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>12.03.2011</t>
+          <t>26.01.2024</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4011,12 +4011,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sondre Aakerholm Adsen</t>
+          <t>Ingjerd Jepsen Vegge</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>5.25,02</t>
+          <t>5.54,12</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>12.03.2011</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4046,12 +4046,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Johan Mostervik</t>
+          <t>Eirik Ingeberg Garshol</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5.27,44</t>
+          <t>5.27,46</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>09.02.2018</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4081,12 +4081,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Eirik Ingeberg Garshol</t>
+          <t>Johan Mostervik</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5.27,46</t>
+          <t>5.27,44</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -4094,12 +4094,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>09.02.2018</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4256,12 +4256,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>David Csejtey</t>
+          <t>Wiggo Røst</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5.29,28</t>
+          <t>5.29,58</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -4269,12 +4269,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>17.04.2021</t>
+          <t>13.03.2009</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kirkenes</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4291,12 +4291,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Wiggo Røst</t>
+          <t>David Csejtey</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5.29,58</t>
+          <t>5.29,28</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -4304,12 +4304,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>13.03.2009</t>
+          <t>17.04.2021</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Kirkenes</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4501,12 +4501,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Vegard S. Wigum</t>
+          <t>Eirik Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>5.34,54</t>
+          <t>5.34,70</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -4514,12 +4514,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>05.04.2014</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4536,12 +4536,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Eirik Hamnes Ulriksen</t>
+          <t>Vegard S. Wigum</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>5.34,70</t>
+          <t>5.34,54</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4549,12 +4549,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>05.04.2014</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4606,25 +4606,25 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Ivan Erikovitch Alvestad</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>5.37,91</t>
+          <t>5.37,58</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>17.04.2021</t>
+          <t>03.12.2016</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4641,12 +4641,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lin Carola Magdalene Nygren</t>
+          <t>Ivan Erikovitch Alvestad</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>6.08,30</t>
+          <t>5.37,91</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -4654,12 +4654,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>17.04.2021</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4676,12 +4676,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Njål Høie</t>
+          <t>Lin Carola Magdalene Nygren</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>5.37,83</t>
+          <t>6.08,30</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4689,12 +4689,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>07.12.2013</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Volda</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4711,25 +4711,25 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Paal Aagaard</t>
+          <t>Njål Høie</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>5.41,86</t>
+          <t>5.37,83</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>13.03.2010</t>
+          <t>07.12.2013</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Volda</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4746,25 +4746,25 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Fredrik Holberg</t>
+          <t>Paal Aagaard</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>5.43,79</t>
+          <t>5.41,86</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>13.03.2010</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4781,16 +4781,16 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ellen Kristine Eidsmo Hova</t>
+          <t>Fredrik Holberg</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>6.16,49</t>
+          <t>5.43,79</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4816,25 +4816,25 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kristian Myhr Høgstøl</t>
+          <t>Ellen Kristine Eidsmo Hova</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>5.47,79</t>
+          <t>6.16,49</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>18.01.2019</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4851,20 +4851,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ailin Østerås</t>
+          <t>Kristian Myhr Høgstøl</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>6.19,89</t>
+          <t>5.47,79</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>18.06.2011</t>
+          <t>18.01.2019</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4886,25 +4886,25 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Jon Noé Høye</t>
+          <t>Ailin Østerås</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5.49,92</t>
+          <t>6.19,89</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>29.09.2019</t>
+          <t>18.06.2011</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4921,25 +4921,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Anton Sergeevich Gorodkov</t>
+          <t>Jon Noé Høye</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>5.53,10</t>
+          <t>5.49,92</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>06.02.2015</t>
+          <t>29.09.2019</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4956,20 +4956,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Philip Giske Nyman</t>
+          <t>Anton Sergeevich Gorodkov</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>5.55,79</t>
+          <t>5.53,10</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>06.02.2015</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4991,25 +4991,25 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Isabel Ødegård Pedersen</t>
+          <t>Philip Giske Nyman</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>6.27,94</t>
+          <t>5.55,79</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5061,25 +5061,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Victor Voormolen Gutierrez</t>
+          <t>Isabel Ødegård Pedersen</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>5.58,79</t>
+          <t>6.27,94</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>16.02.2019</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5096,25 +5096,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Kaan Baltaci</t>
+          <t>Victor Voormolen Gutierrez</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>6.00,75</t>
+          <t>5.58,79</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>03.12.2022</t>
+          <t>16.02.2019</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5131,25 +5131,25 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Oscar Kvaløy Tiller</t>
+          <t>Kaan Baltaci</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>6.02,45</t>
+          <t>6.00,75</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>20.09.2020</t>
+          <t>03.12.2022</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5166,20 +5166,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Anton Hoel</t>
+          <t>Oscar Kvaløy Tiller</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>6.06,85</t>
+          <t>6.02,45</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>15.09.2013</t>
+          <t>20.09.2020</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5201,20 +5201,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Morten Schanke</t>
+          <t>Anton Hoel</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>6.08,40</t>
+          <t>6.06,85</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>08.04.2016</t>
+          <t>15.09.2013</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5236,25 +5236,25 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Peder Lund Juul</t>
+          <t>Morten Schanke</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>6.09,76</t>
+          <t>6.08,40</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>06.04.2024</t>
+          <t>08.04.2016</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5271,25 +5271,25 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Håkon Emil Øien</t>
+          <t>Peder Lund Juul</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>6.14,37</t>
+          <t>6.09,76</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>15.06.2013</t>
+          <t>06.04.2024</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5306,20 +5306,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Jakob M. Tjøstheim</t>
+          <t>Håkon Emil Øien</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>6.15,41</t>
+          <t>6.14,37</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>15.06.2013</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5341,25 +5341,25 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Thomas Paulsen</t>
+          <t>Jakob M. Tjøstheim</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>6.16,34</t>
+          <t>6.15,41</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>08.02.2014</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5376,25 +5376,25 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Liv Løfaldli</t>
+          <t>Thomas Paulsen</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>6.51,60</t>
+          <t>6.16,34</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>08.02.2014</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5411,25 +5411,25 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Emily Liv Liem</t>
+          <t>Liv Løfaldli</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>6.53,66</t>
+          <t>6.51,60</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>18.01.2019</t>
+          <t>16.02.2025</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5446,20 +5446,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ingeborg Strandenes</t>
+          <t>Emily Liv Liem</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7.00,04</t>
+          <t>6.53,66</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>18.01.2019</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5481,25 +5481,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>William Johannes Kirkelund Kristiansen</t>
+          <t>Ingeborg Strandenes</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>6.30,82</t>
+          <t>7.00,04</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>19.03.2022</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Orkanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5516,25 +5516,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sigurd Øie Seland</t>
+          <t>William Johannes Kirkelund Kristiansen</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>6.32,26</t>
+          <t>6.30,82</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>19.03.2022</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Orkanger</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5551,20 +5551,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>William Wale</t>
+          <t>Sigurd Øie Seland</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>6.34,36</t>
+          <t>6.32,26</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5586,25 +5586,25 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Tymofii Dzisiak</t>
+          <t>William Wale</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>6.36,67</t>
+          <t>6.34,36</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5621,16 +5621,16 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Rasmus Larsen Natvig</t>
+          <t>Tymofii Dzisiak</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>6.37,26</t>
+          <t>6.36,67</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -5656,25 +5656,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Marit Søberg</t>
+          <t>Rasmus Larsen Natvig</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7.14,27</t>
+          <t>6.37,26</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>20.09.2009</t>
+          <t>16.02.2025</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5691,12 +5691,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sondre Thorgaard</t>
+          <t>Marit Søberg</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>6.38,53</t>
+          <t>7.14,27</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>17.04.2021</t>
+          <t>20.09.2009</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5726,25 +5726,25 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Einar Risholt Moen</t>
+          <t>Sondre Thorgaard</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>6.39,20</t>
+          <t>6.38,53</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>20.04.2013</t>
+          <t>17.04.2021</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5761,25 +5761,25 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Bernard Smuk</t>
+          <t>Einar Risholt Moen</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>6.40,79</t>
+          <t>6.39,20</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>20.04.2013</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5796,20 +5796,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Robin von Bargen</t>
+          <t>Bernard Smuk</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>6.42,14</t>
+          <t>6.40,79</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>22.05.2009</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5831,20 +5831,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Olav Høyland Hofstad</t>
+          <t>Robin von Bargen</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>6.43,02</t>
+          <t>6.42,14</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>22.05.2009</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5866,20 +5866,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Jesper Julius Sundseth Skjærli</t>
+          <t>Olav Høyland Hofstad</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>6.45,52</t>
+          <t>6.43,02</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5901,25 +5901,25 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Gunhild Furuholt Valle</t>
+          <t>Jesper Julius Sundseth Skjærli</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>7.23,93</t>
+          <t>6.45,52</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>30.11.2024</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5936,25 +5936,25 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Fredrik Hårsaker Myrenget</t>
+          <t>Gunhild Furuholt Valle</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>6.49,43</t>
+          <t>7.23,93</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>19.01.2018</t>
+          <t>30.11.2024</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5971,20 +5971,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Cornelius Wik</t>
+          <t>Fredrik Hårsaker Myrenget</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>6.51,12</t>
+          <t>6.49,43</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>19.01.2018</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6006,20 +6006,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Marcus Thalberg Fagerheim</t>
+          <t>Cornelius Wik</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>6.54,27</t>
+          <t>6.51,12</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>18.09.2011</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6076,20 +6076,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Erik Solbakken Andersen</t>
+          <t>Marcus Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>6.56,50</t>
+          <t>6.54,27</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>18.09.2011</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6111,20 +6111,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Leo Alexander Farias Kristiansen</t>
+          <t>Erik Solbakken Andersen</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>6.57,95</t>
+          <t>6.56,50</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>20.09.2020</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6146,20 +6146,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Morten Johansen</t>
+          <t>Leo Alexander Farias Kristiansen</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7.04,68</t>
+          <t>6.57,95</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>14.01.2006</t>
+          <t>20.09.2020</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6181,25 +6181,25 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Magnus Hestvik Larsen</t>
+          <t>Morten Johansen</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>7.07,68</t>
+          <t>7.04,68</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>14.02.2009</t>
+          <t>14.01.2006</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6216,20 +6216,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Vår Kristine Sollien Skar</t>
+          <t>Magnus Hestvik Larsen</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>7.57,14</t>
+          <t>7.07,68</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>08.02.2014</t>
+          <t>14.02.2009</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6251,25 +6251,25 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Arild Håkonsen Stixrud</t>
+          <t>Vår Kristine Sollien Skar</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>7.20,26</t>
+          <t>7.57,14</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>08.02.2014</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6286,20 +6286,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Ingvar Høgås Wik</t>
+          <t>Arild Håkonsen Stixrud</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>7.23,47</t>
+          <t>7.20,26</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>09.02.2013</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6321,25 +6321,25 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Ingeborg Vold Kirkvold</t>
+          <t>Ingvar Høgås Wik</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>8.04,68</t>
+          <t>7.23,47</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>30.11.2024</t>
+          <t>09.02.2013</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6356,12 +6356,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Setareh Kulsum Sigrid Feyzi</t>
+          <t>Ingeborg Vold Kirkvold</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>8.04,33</t>
+          <t>8.04,68</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -6369,12 +6369,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>29.09.2018</t>
+          <t>30.11.2024</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6391,25 +6391,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Hauk Vold Kirkvold</t>
+          <t>Setareh Kulsum Sigrid Feyzi</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7.26,48</t>
+          <t>8.04,33</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>27.02.2022</t>
+          <t>29.09.2018</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6461,25 +6461,25 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Vegard Olsvold</t>
+          <t>Hauk Vold Kirkvold</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7.35,09</t>
+          <t>7.26,48</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>27.02.2022</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6496,25 +6496,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Eirik Solligård</t>
+          <t>Vegard Olsvold</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>7.36,98</t>
+          <t>7.35,09</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>28.02.2009</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6531,20 +6531,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Hans Otto Søyseth</t>
+          <t>Eirik Solligård</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7.41,13</t>
+          <t>7.36,98</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>29.11.2014</t>
+          <t>28.02.2009</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6566,12 +6566,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Filip Dalsaune</t>
+          <t>Hans Otto Søyseth</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7.41,74</t>
+          <t>7.41,13</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -6579,12 +6579,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>29.11.2014</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6601,20 +6601,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Dominic Olav Sollien-Pearn</t>
+          <t>Filip Dalsaune</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7.48,33</t>
+          <t>7.41,74</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6636,20 +6636,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sigurd Kristoffersen Torvik</t>
+          <t>Dominic Olav Sollien-Pearn</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7.49,19</t>
+          <t>7.48,33</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>26.01.2024</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6671,20 +6671,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>André Prestmo-Edvardsen</t>
+          <t>Sigurd Kristoffersen Torvik</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>7.53,10</t>
+          <t>7.49,19</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>20.09.2020</t>
+          <t>26.01.2024</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6706,20 +6706,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Nikan Ommani</t>
+          <t>André Prestmo-Edvardsen</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>7.56,73</t>
+          <t>7.53,10</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>20.09.2020</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6741,20 +6741,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Ingolf Nicholay Stenskrog</t>
+          <t>Nikan Ommani</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>7.59,84</t>
+          <t>7.56,73</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>07.12.2012</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6776,20 +6776,20 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Guangzhi Ma</t>
+          <t>Ingolf Nicholay Stenskrog</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>8.03,69</t>
+          <t>7.59,84</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>20.05.2006</t>
+          <t>07.12.2012</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6811,12 +6811,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Nataniel Skjøndal-Bar</t>
+          <t>Guangzhi Ma</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>8.04,47</t>
+          <t>8.03,69</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -6824,12 +6824,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>20.10.2019</t>
+          <t>20.05.2006</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6846,25 +6846,25 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Gajithsing Ajeethsing</t>
+          <t>Nataniel Skjøndal-Bar</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>8.21,75</t>
+          <t>8.04,47</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>17.04.2021</t>
+          <t>20.10.2019</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6881,25 +6881,25 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Theodor Hoff</t>
+          <t>Gajithsing Ajeethsing</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>8.23,55</t>
+          <t>8.21,75</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>20.04.2013</t>
+          <t>17.04.2021</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6916,25 +6916,25 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Casper Dahle-Øfsti</t>
+          <t>Theodor Hoff</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>8.28,80</t>
+          <t>8.23,55</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>20.10.2013</t>
+          <t>20.04.2013</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6951,33 +6951,68 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
+          <t>Casper Dahle-Øfsti</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>8.28,80</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>72</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>20.10.2013</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Namsos</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
           <t>Riccardo Manum</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>8.51,65</t>
         </is>
       </c>
-      <c r="C187" t="n">
+      <c r="C188" t="n">
         <v>63</v>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>17.01.2025</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>Trondheim</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -6994,7 +7029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7952,12 +7987,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jenny Marandon Natvik</t>
+          <t>Arnt Martin Ystenes</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5.12,22</t>
+          <t>4.51,84</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -7965,7 +8000,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14.06.2015</t>
+          <t>13.06.2009</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -7987,12 +8022,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Arnt Martin Ystenes</t>
+          <t>Jenny Marandon Natvik</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.51,84</t>
+          <t>5.12,22</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -8000,7 +8035,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13.06.2009</t>
+          <t>14.06.2015</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -8862,12 +8897,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Eilert Juul Wolfgang</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5.31,63</t>
+          <t>5.31,37</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -8875,7 +8910,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14.06.2014</t>
+          <t>10.06.2017</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -8897,20 +8932,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Iris Elise Moen</t>
+          <t>Eilert Juul Wolfgang</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5.57,06</t>
+          <t>5.31,63</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>14.06.2014</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -8967,20 +9002,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Edvin Grenne Spangelo</t>
+          <t>Iris Elise Moen</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5.36,79</t>
+          <t>5.57,06</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -9002,16 +9037,16 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Fredrik Holberg</t>
+          <t>Edvin Grenne Spangelo</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5.41,28</t>
+          <t>5.36,79</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -9037,25 +9072,25 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Tamer Saleh Abuzid</t>
+          <t>Fredrik Holberg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5.42,96</t>
+          <t>5.41,28</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>28.06.2019</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -9072,7 +9107,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Daniel Stanislaw Czuba</t>
+          <t>Tamer Saleh Abuzid</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -9085,7 +9120,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>28.06.2024</t>
+          <t>28.06.2019</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -9107,25 +9142,25 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Vegard Maaø</t>
+          <t>Daniel Stanislaw Czuba</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5.45,52</t>
+          <t>5.42,96</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>24.04.2010</t>
+          <t>28.06.2024</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -9142,25 +9177,25 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Lin Carola Magdalene Nygren</t>
+          <t>Vegard Maaø</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6.14,11</t>
+          <t>5.45,52</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>24.04.2010</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -9177,25 +9212,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Edvard Hamnes Ulriksen</t>
+          <t>Lin Carola Magdalene Nygren</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5.54,77</t>
+          <t>6.14,11</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>15.06.2024</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -9212,25 +9247,25 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Jon Noé Høye</t>
+          <t>Edvard Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5.55,64</t>
+          <t>5.54,77</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>28.06.2019</t>
+          <t>15.06.2024</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -9247,25 +9282,25 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sondre Aakerholm Adsen</t>
+          <t>Jon Noé Høye</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5.57,68</t>
+          <t>5.55,64</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>04.06.2023</t>
+          <t>28.06.2019</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -9282,25 +9317,25 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Eirik Hamnes Ulriksen</t>
+          <t>Sondre Aakerholm Adsen</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6.00,94</t>
+          <t>5.57,68</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>15.06.2024</t>
+          <t>04.06.2023</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -9317,16 +9352,16 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pedro Manquehual</t>
+          <t>Eirik Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6.16,61</t>
+          <t>6.00,94</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -9352,25 +9387,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>William Johannes Kirkelund Kristiansen</t>
+          <t>Pedro Manquehual</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6.16,99</t>
+          <t>6.16,61</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>15.06.2024</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -9387,20 +9422,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ole Skuseth</t>
+          <t>William Johannes Kirkelund Kristiansen</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6.20,74</t>
+          <t>6.16,99</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>30.04.2022</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -9422,16 +9457,16 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Theodor Solheim</t>
+          <t>Ole Skuseth</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6.21,08</t>
+          <t>6.20,74</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9457,25 +9492,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Håkon Emil Øien</t>
+          <t>Theodor Solheim</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6.23,21</t>
+          <t>6.21,08</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -9492,25 +9527,25 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sigurd Øie Seland</t>
+          <t>Håkon Emil Øien</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6.29,31</t>
+          <t>6.23,21</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -9527,20 +9562,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lyder Ringsvold Hogstad</t>
+          <t>Sigurd Øie Seland</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6.30,81</t>
+          <t>6.29,31</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>09.06.2018</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -9562,20 +9597,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Jesper Julius Sundseth Skjærli</t>
+          <t>Lyder Ringsvold Hogstad</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6.35,34</t>
+          <t>6.30,81</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>09.06.2018</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -9597,25 +9632,25 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Dhanushi Attanapola</t>
+          <t>Jesper Julius Sundseth Skjærli</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7.03,61</t>
+          <t>6.35,34</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>08.01.2008</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -9632,25 +9667,25 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rasmus Larsen Natvig</t>
+          <t>Dhanushi Attanapola</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6.47,56</t>
+          <t>7.03,61</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -9667,20 +9702,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ivan Erikovitch Alvestad</t>
+          <t>Rasmus Larsen Natvig</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6.48,06</t>
+          <t>6.47,56</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -9702,25 +9737,25 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Fredrik Hårsaker Myrenget</t>
+          <t>Ivan Erikovitch Alvestad</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7.06,80</t>
+          <t>6.48,06</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14.07.2016</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -9737,25 +9772,25 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Philip Giske Nyman</t>
+          <t>Fredrik Hårsaker Myrenget</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7.11,33</t>
+          <t>7.06,80</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>15.06.2024</t>
+          <t>14.07.2016</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -9772,16 +9807,16 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bernard Smuk</t>
+          <t>Philip Giske Nyman</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7.48,67</t>
+          <t>7.11,33</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9807,33 +9842,68 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>Bernard Smuk</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>7.48,67</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>103</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>15.06.2024</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Ankerskogen svømmehall</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>50m</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
           <t>Robin von Bargen</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>8.36,29</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C82" t="n">
         <v>77</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>08.01.2008</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>Trondheim</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>50m</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -9850,7 +9920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11438,12 +11508,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Helle Krogstad</t>
+          <t>Gudrun Berg Ildstad</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5.09,53</t>
+          <t>5.09,44</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -11451,12 +11521,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.02.2008</t>
+          <t>21.05.2005</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -11473,12 +11543,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gudrun Berg Ildstad</t>
+          <t>Helle Krogstad</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5.09,44</t>
+          <t>5.09,53</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -11486,12 +11556,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>21.05.2005</t>
+          <t>10.02.2008</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -11578,12 +11648,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Linn Amalie Aresvik</t>
+          <t>Hedda Østgaard</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5.10,84</t>
+          <t>5.10,70</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -11591,12 +11661,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15.10.2011</t>
+          <t>08.05.2010</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Brunflo</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -11613,12 +11683,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Hedda Østgaard</t>
+          <t>Silje Aadahl</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5.10,70</t>
+          <t>5.10,60</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -11626,12 +11696,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>08.05.2010</t>
+          <t>10.02.2017</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -11648,12 +11718,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Silje Aadahl</t>
+          <t>Linn Amalie Aresvik</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5.10,60</t>
+          <t>5.10,84</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -11661,12 +11731,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10.02.2017</t>
+          <t>15.10.2011</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Brunflo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -12523,12 +12593,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ingrid Vie</t>
+          <t>Nina Alicja Skarø</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5.23,47</t>
+          <t>5.23,58</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -12536,12 +12606,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>28.03.2025</t>
+          <t>30.09.2017</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -12558,12 +12628,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Nina Alicja Skarø</t>
+          <t>Ingrid Vie</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5.23,58</t>
+          <t>5.23,47</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -12571,12 +12641,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>30.09.2017</t>
+          <t>28.03.2025</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -13153,12 +13223,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ingrid Johansen</t>
+          <t>Silje Dahle</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5.36,06</t>
+          <t>5.35,85</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -13166,7 +13236,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>12.01.2007</t>
+          <t>19.01.2018</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -13188,12 +13258,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Silje Dahle</t>
+          <t>Ingrid Johansen</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>5.35,85</t>
+          <t>5.36,06</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -13201,7 +13271,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>19.01.2018</t>
+          <t>12.01.2007</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -13748,12 +13818,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Alisa Kulagina</t>
+          <t>Sara Skaalvik Trelstad</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>5.51,43</t>
+          <t>5.51,14</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -13761,12 +13831,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>08.02.2014</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -13783,12 +13853,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sara Skaalvik Trelstad</t>
+          <t>Alisa Kulagina</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5.51,14</t>
+          <t>5.51,43</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -13796,12 +13866,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>08.02.2014</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -14273,25 +14343,25 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>5.37,58</t>
+          <t>6.09,00</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>03.12.2016</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -14343,25 +14413,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Hege Noreng</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>6.09,00</t>
+          <t>6.12,52</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>08.04.2016</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -14378,25 +14448,25 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Hege Noreng</t>
+          <t>Anahita Koushan</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>6.12,52</t>
+          <t>6.14,16</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>08.04.2016</t>
+          <t>30.11.2019</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -14413,25 +14483,25 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Anahita Koushan</t>
+          <t>Hilde Stene Rygh</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>6.14,16</t>
+          <t>6.15,83</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>30.11.2019</t>
+          <t>09.03.2019</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -14448,25 +14518,25 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Hilde Stene Rygh</t>
+          <t>Pia Helena Wildhagen</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>6.15,83</t>
+          <t>6.18,94</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>09.03.2019</t>
+          <t>19.01.2018</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -14483,25 +14553,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Pia Helena Wildhagen</t>
+          <t>Ingrid Lianes</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>6.18,94</t>
+          <t>6.19,72</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>19.01.2018</t>
+          <t>22.05.2009</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -14518,25 +14588,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ingrid Lianes</t>
+          <t>Sigrid Moen Henriksen</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>6.19,72</t>
+          <t>6.22,34</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>22.05.2009</t>
+          <t>17.03.2023</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -14553,25 +14623,25 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Sigrid Moen Henriksen</t>
+          <t>Amalie Solvoll</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>6.22,34</t>
+          <t>6.33,48</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>17.03.2023</t>
+          <t>15.03.2019</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -14588,25 +14658,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Amalie Solvoll</t>
+          <t>Madeleine Tran Wæraas</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>6.33,48</t>
+          <t>6.37,17</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>15.03.2019</t>
+          <t>27.10.2019</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -14623,25 +14693,25 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Madeleine Tran Wæraas</t>
+          <t>Ingrid Skye Naustvoll</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>6.37,17</t>
+          <t>6.38,09</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>27.10.2019</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -14658,25 +14728,25 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Ingrid Skye Naustvoll</t>
+          <t>Cathrine Hegle</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>6.38,09</t>
+          <t>6.40,05</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>15.05.2010</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -14693,25 +14763,25 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Cathrine Hegle</t>
+          <t>Aurora S. Juel</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>6.40,05</t>
+          <t>6.44,06</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>15.05.2010</t>
+          <t>16.06.2012</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -14728,20 +14798,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Aurora S. Juel</t>
+          <t>Amalie Gylseth Dahl</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>6.44,06</t>
+          <t>6.47,43</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>16.06.2012</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -14763,20 +14833,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Amalie Gylseth Dahl</t>
+          <t>Emma Nedeea Hagen</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>6.47,43</t>
+          <t>6.48,65</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>14.11.2021</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -14798,25 +14868,25 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Emma Nedeea Hagen</t>
+          <t>Emilie Sandvik Gangåssæter</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>6.48,65</t>
+          <t>6.49,16</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>14.11.2021</t>
+          <t>29.09.2019</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -14868,25 +14938,25 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Emilie Sandvik Gangåssæter</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>6.49,16</t>
+          <t>6.52,92</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>29.09.2019</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -14903,16 +14973,16 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Louise Thys</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>6.52,92</t>
+          <t>6.59,17</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14938,12 +15008,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Louise Thys</t>
+          <t>Ronja Emilia Wikström</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>6.59,17</t>
+          <t>6.59,09</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -14951,12 +15021,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>16.09.2023</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -14973,16 +15043,16 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Ronja Emilia Wikström</t>
+          <t>Camila Dorao</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>6.59,09</t>
+          <t>7.00,70</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -15008,25 +15078,25 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Camila Dorao</t>
+          <t>Lea almaas</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7.00,70</t>
+          <t>7.04,43</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>16.09.2023</t>
+          <t>10.02.2012</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -15043,20 +15113,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Lea almaas</t>
+          <t>Mia Bretun Finserå</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>7.04,43</t>
+          <t>7.11,96</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>10.02.2012</t>
+          <t>27.10.2012</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -15078,25 +15148,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Mia Bretun Finserå</t>
+          <t>Anna Fenstad Høysæter</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7.11,96</t>
+          <t>7.14,33</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>27.10.2012</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -15113,20 +15183,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Anna Fenstad Høysæter</t>
+          <t>Amelia Roaldseth</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>7.14,33</t>
+          <t>7.21,97</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>21.09.2008</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -15148,20 +15218,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Amelia Roaldseth</t>
+          <t>Ramona Vutudal</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7.21,97</t>
+          <t>7.24,27</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>21.09.2008</t>
+          <t>24.01.2009</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -15183,12 +15253,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Ramona Vutudal</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>7.24,27</t>
+          <t>7.24,00</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -15196,7 +15266,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>24.01.2009</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -15218,25 +15288,25 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Julia Beatrice Ferreira Kristiansen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>7.24,00</t>
+          <t>7.24,53</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>03.12.2016</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -15253,20 +15323,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Julia Beatrice Ferreira Kristiansen</t>
+          <t>Tora Tveiten</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>7.24,53</t>
+          <t>7.31,38</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>03.12.2016</t>
+          <t>29.11.2014</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -15288,20 +15358,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Tora Tveiten</t>
+          <t>Aurora Dahl Bere</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>7.31,38</t>
+          <t>7.36,70</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>29.11.2014</t>
+          <t>06.04.2024</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -15358,25 +15428,25 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Aurora Dahl Bere</t>
+          <t>Kristina Bragadottir</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>7.36,70</t>
+          <t>7.42,35</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>06.04.2024</t>
+          <t>16.06.2012</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -15393,25 +15463,25 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Kristina Bragadottir</t>
+          <t>Live Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7.42,35</t>
+          <t>7.45,53</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>16.06.2012</t>
+          <t>30.11.2024</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -15428,20 +15498,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Live Hamnes Ulriksen</t>
+          <t>Connie Rakel Lånke</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>7.45,53</t>
+          <t>7.57,66</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>30.11.2024</t>
+          <t>05.04.2014</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -15463,20 +15533,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Connie Rakel Lånke</t>
+          <t>Ilaria Kari Cherubini</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>7.57,66</t>
+          <t>7.59,17</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>05.04.2014</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -15498,25 +15568,25 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ilaria Kari Cherubini</t>
+          <t>Charlotte Talseth</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>7.59,17</t>
+          <t>8.06,12</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -15533,25 +15603,25 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Charlotte Talseth</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>8.06,12</t>
+          <t>8.09,26</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>30.11.2024</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -15568,25 +15638,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Sunniva Eldholm</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>8.09,26</t>
+          <t>8.14,05</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>30.11.2024</t>
+          <t>17.04.2021</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -15603,20 +15673,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sunniva Eldholm</t>
+          <t>Aida Smalø Moen</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>8.14,05</t>
+          <t>8.16,82</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>17.04.2021</t>
+          <t>18.09.2011</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -15638,20 +15708,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Aida Smalø Moen</t>
+          <t>Sara Olea  Riseth Moe</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>8.16,82</t>
+          <t>8.24,90</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>18.09.2011</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -15673,20 +15743,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sara Olea  Riseth Moe</t>
+          <t>Frida Merethe Norli Eidsvåg</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>8.24,90</t>
+          <t>8.25,93</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -15708,20 +15778,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Frida Merethe Norli Eidsvåg</t>
+          <t>Eline Nergård Wilhelmsen</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>8.25,93</t>
+          <t>8.31,66</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -15743,20 +15813,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Eline Nergård Wilhelmsen</t>
+          <t>Jassmitha Ajeethsing</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>8.31,66</t>
+          <t>8.33,33</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -15778,25 +15848,25 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Jassmitha Ajeethsing</t>
+          <t>Camilla Gervasoni</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>8.33,33</t>
+          <t>8.40,05</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>03.12.2011</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -15813,25 +15883,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Camilla Gervasoni</t>
+          <t>Aida Sofie Feyzi</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>8.40,05</t>
+          <t>8.44,42</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>03.12.2011</t>
+          <t>29.09.2018</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -15848,25 +15918,25 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Aida Sofie Feyzi</t>
+          <t>Aurora Marken Fredriksen</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>8.44,42</t>
+          <t>8.55,96</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>29.09.2018</t>
+          <t>17.04.2021</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -15883,20 +15953,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Aurora Marken Fredriksen</t>
+          <t>Elena Fyhn Leida</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>8.55,96</t>
+          <t>9.05,38</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>17.04.2021</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -15918,25 +15988,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Elena Fyhn Leida</t>
+          <t>Phoebe Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>9.05,38</t>
+          <t>9.30,95</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>24.11.2012</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -15953,25 +16023,25 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Phoebe Thalberg Fagerheim</t>
+          <t>Kristine Haram Bye</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>9.30,95</t>
+          <t>10.49,84</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>24.11.2012</t>
+          <t>30.10.2010</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -15980,41 +16050,6 @@
         </is>
       </c>
       <c r="G175" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Kristine Haram Bye</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>10.49,84</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>45</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>30.10.2010</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
@@ -16031,7 +16066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17199,12 +17234,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Isabella Johanne Debik</t>
+          <t>Karoline Volden</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5.26,04</t>
+          <t>5.26,06</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -17212,7 +17247,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>15.06.2014</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -17234,12 +17269,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Karoline Volden</t>
+          <t>Isabella Johanne Debik</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5.26,06</t>
+          <t>5.26,04</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -17247,7 +17282,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15.06.2014</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -17514,12 +17549,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nina Alicja Skarø</t>
+          <t>Nora Kristine Rasmussen</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5.32,92</t>
+          <t>5.32,93</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -17527,7 +17562,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11.06.2017</t>
+          <t>14.06.2015</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -17549,12 +17584,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nora Kristine Rasmussen</t>
+          <t>Nina Alicja Skarø</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5.32,93</t>
+          <t>5.32,92</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -17562,7 +17597,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14.06.2015</t>
+          <t>11.06.2017</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -17969,20 +18004,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Aurora Moen Wannebo</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5.31,37</t>
+          <t>5.58,14</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10.06.2017</t>
+          <t>15.06.2014</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -18004,25 +18039,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aurora Moen Wannebo</t>
+          <t>Kristina Aleman Sandsund</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5.58,14</t>
+          <t>6.00,57</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>15.06.2014</t>
+          <t>27.06.2025</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -18039,25 +18074,25 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Kristina Aleman Sandsund</t>
+          <t>Alexandra Contreras Jimenez</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6.00,57</t>
+          <t>6.01,09</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>27.06.2025</t>
+          <t>16.06.2024</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -18074,25 +18109,25 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Alexandra Contreras Jimenez</t>
+          <t>Anna Svendsen</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6.01,09</t>
+          <t>6.01,88</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16.06.2024</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -18109,25 +18144,25 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Anna Svendsen</t>
+          <t>Andrea Lintorp</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6.01,88</t>
+          <t>6.02,20</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>09.04.2011</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -18144,25 +18179,25 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Andrea Lintorp</t>
+          <t>Elise Øystrøm Tyvold</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6.02,20</t>
+          <t>6.06,32</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>09.04.2011</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -18179,12 +18214,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Elise Øystrøm Tyvold</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6.06,32</t>
+          <t>6.06,17</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -18192,7 +18227,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -18214,25 +18249,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Selma Strandjord Lillerødvann</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6.06,17</t>
+          <t>6.07,25</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>16.06.2024</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -18249,25 +18284,25 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Selma Strandjord Lillerødvann</t>
+          <t>Nicole Kulagina</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6.07,25</t>
+          <t>6.10,88</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>16.06.2024</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -18284,16 +18319,16 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nicole Kulagina</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6.10,88</t>
+          <t>6.11,94</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -18354,25 +18389,25 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
+          <t>Hanne Søyseth</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6.11,94</t>
+          <t>6.13,41</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>17.04.2016</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -18389,25 +18424,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hanne Søyseth</t>
+          <t>Helene Marie Haram</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6.13,41</t>
+          <t>6.14,89</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>17.04.2016</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -18424,25 +18459,25 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Helene Marie Haram</t>
+          <t>Live Killingberg Sandberg</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6.14,89</t>
+          <t>6.15,42</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>30.03.2019</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -18459,25 +18494,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Live Killingberg Sandberg</t>
+          <t>Helle Johnsen Selsås</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6.15,42</t>
+          <t>6.17,71</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>30.03.2019</t>
+          <t>28.06.2024</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -18494,25 +18529,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Helle Johnsen Selsås</t>
+          <t>Emre Vold Kirkvold</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6.17,71</t>
+          <t>5.54,95</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>28.06.2024</t>
+          <t>04.06.2023</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -18564,16 +18599,16 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Emre Vold Kirkvold</t>
+          <t>Sofie Hoff</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5.54,95</t>
+          <t>6.22,81</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -18599,25 +18634,25 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sofie Hoff</t>
+          <t>Hedda Fosseng Traa</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6.22,81</t>
+          <t>6.29,18</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>04.06.2023</t>
+          <t>27.04.2014</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -18634,25 +18669,25 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Hedda Fosseng Traa</t>
+          <t>Mona Høysæter Fenstad</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6.29,18</t>
+          <t>6.31,73</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>27.04.2014</t>
+          <t>10.06.2018</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -18669,20 +18704,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mona Høysæter Fenstad</t>
+          <t>Maria Erikovna Alvestad</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6.31,73</t>
+          <t>6.33,82</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>10.06.2018</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -18704,25 +18739,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Maria Erikovna Alvestad</t>
+          <t>Hilde Stene Rygh</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6.33,82</t>
+          <t>6.39,29</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>25.10.2019</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Vantaa</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -18739,25 +18774,25 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hilde Stene Rygh</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6.39,29</t>
+          <t>6.42,95</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>25.10.2019</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Vantaa</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -18774,16 +18809,16 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6.42,95</t>
+          <t>6.58,14</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -18809,25 +18844,25 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Aurora Alexandra Bjordal</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6.58,14</t>
+          <t>7.00,99</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>29.04.2018</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -18844,20 +18879,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Aurora Alexandra Bjordal</t>
+          <t>Ingrid Skye Naustvoll</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7.00,99</t>
+          <t>7.10,82</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>29.04.2018</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -18879,25 +18914,25 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ingrid Skye Naustvoll</t>
+          <t>Frida Pauline Busch</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7.10,82</t>
+          <t>7.25,84</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -18914,25 +18949,25 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Frida Pauline Busch</t>
+          <t>Viktoria Juel</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7.25,84</t>
+          <t>7.37,20</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -18949,25 +18984,25 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Viktoria Juel</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7.37,20</t>
+          <t>7.47,01</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>08.01.2008</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -18984,25 +19019,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Karoline Skjevik</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7.47,01</t>
+          <t>8.11,45</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -19019,16 +19054,16 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Karoline Skjevik</t>
+          <t>Amelia Roaldseth</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8.11,45</t>
+          <t>8.18,06</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -19054,25 +19089,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Amelia Roaldseth</t>
+          <t>Arne Martin Einarsrud Rismoen</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8.18,06</t>
+          <t>7.54,66</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>08.01.2008</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -19089,25 +19124,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Arne Martin Einarsrud Rismoen</t>
+          <t>Julia Tan</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7.54,66</t>
+          <t>8.52,16</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -19116,41 +19151,6 @@
         </is>
       </c>
       <c r="G88" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Julia Tan</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>8.52,16</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>86</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>08.01.2008</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>50m</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
